--- a/TDataEx.xlsx
+++ b/TDataEx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t xml:space="preserve">S.No.</t>
   </si>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,12 +210,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,8 +261,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,7 +290,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,934 +316,1063 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>39.6</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>24.5</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>39.2</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <v>7.8</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6" t="n">
         <v>78.9</v>
       </c>
-      <c r="K2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="5" t="n">
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>30.33</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>24.16</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>67.38</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="6" t="n">
         <v>72.34</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="5" t="n">
+      <c r="O3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>21.05</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>7.02</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>14.04</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>67.75</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.43</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="6" t="n">
         <v>57.42</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="5" t="n">
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>33.8</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>25.9</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>29.8</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>73.5</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>69.9</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="6" t="n">
         <v>81.6</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="O5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="6" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <v>41.73</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>27.65</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>34.69</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="6" t="n">
         <v>47.31</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <v>7.93</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="6" t="n">
         <v>83.75</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="5" t="n">
+      <c r="O6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>26.83</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>19.91</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>70.85</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>22.3</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="6" t="n">
         <v>66.24</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="5" t="n">
+      <c r="O7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="6" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>15.7</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>6.96</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>11.33</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>83.83</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <v>7.33</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="6" t="n">
         <v>52.89</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>37.32</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>27.82</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>32.47</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>63.22</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <v>7.13</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <v>83.94</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="5" t="n">
+      <c r="O9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="6" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>31.96</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>21.85</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="6" t="n">
         <v>26.71</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="6" t="n">
         <v>192</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="6" t="n">
         <v>79.18</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="5" t="n">
+      <c r="O10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="6" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>30.05</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>17.04</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>23.55</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="6" t="n">
         <v>73.56</v>
       </c>
-      <c r="K11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <v>25.96</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>10.57</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>18.27</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="6" t="n">
         <v>64.57</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>30.05</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>17.04</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>23.55</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>73.56</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="6" t="n">
+      <c r="O13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>31.55</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>16.22</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>23.88</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>52.4</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>72.15</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="O14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>8.96</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>15.38</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>59.57</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="0" t="n">
+      <c r="O15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>31.96</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>21.85</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>79.18</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="0" t="n">
+      <c r="O16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>34.26</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>23.38</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>28.82</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>81.42</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="0" t="n">
+      <c r="O17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>35.5</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>20.2</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>27.8</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>50.9</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="0" t="n">
+      <c r="O18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>72.34</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>72.6</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TDataEx.xlsx
+++ b/TDataEx.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\GithubDesktop\CP302\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D93B02A-FD8F-4D41-A911-0ADA66087D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,138 +27,138 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
-    <t xml:space="preserve">S.No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Fodder given 
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Green Fodder given 
 to in milk</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry Fodder given to
+    <t>Dry Fodder given to
  in milk</t>
   </si>
   <si>
-    <t xml:space="preserve">Max T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THI</t>
+    <t>Max T</t>
+  </si>
+  <si>
+    <t>Min T</t>
+  </si>
+  <si>
+    <t>Mean T</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
+  </si>
+  <si>
+    <t>THI</t>
   </si>
   <si>
     <t xml:space="preserve">farm size </t>
   </si>
   <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green 
+    <t>District</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Green 
 Fodder</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry
+    <t>Dry
  Fodder</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm Milk Production per 
+    <t>Farm Milk Production per 
 Day</t>
   </si>
   <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludhiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barseem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat Straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mukatsar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Western</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barseen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paddy Straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoshiarpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Mountanious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurdaspur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Barseem</t>
+  </si>
+  <si>
+    <t>Wheat Straw</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Bajra</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Mukatsar</t>
+  </si>
+  <si>
+    <t>South Western</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Barseen</t>
+  </si>
+  <si>
+    <t>Paddy Straw</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Hoshiarpur</t>
+  </si>
+  <si>
+    <t>Sub Mountanious</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>chari</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Gurdaspur</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>jawar</t>
+  </si>
+  <si>
+    <t>maize</t>
   </si>
   <si>
     <t xml:space="preserve">Sangrur </t>
@@ -162,11 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,22 +177,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -198,14 +185,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,106 +213,380 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.09"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,38 +636,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>39.6</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>24.5</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I2" s="5">
         <v>7.8</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="K2" s="5" t="n">
+      <c r="J2" s="5">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K2" s="5">
         <v>3</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -422,42 +682,42 @@
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>30.33</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>24.16</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>67.38</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>72.34</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -472,42 +732,42 @@
       <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>21.05</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>7.02</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>14.04</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>67.75</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>0.43</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>57.42</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="5">
         <v>5</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -522,42 +782,42 @@
       <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="P4" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F5" s="5">
         <v>25.9</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="5">
         <v>29.8</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="5">
         <v>73.5</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="K5" s="5" t="n">
+      <c r="I5" s="5">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J5" s="5">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K5" s="5">
         <v>8</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -572,42 +832,42 @@
       <c r="O5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>41.73</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>27.65</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>34.69</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>47.31</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>7.93</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>83.75</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -622,42 +882,42 @@
       <c r="O6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>26.83</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>19.91</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>70.85</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="I7" s="5">
         <v>22.3</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>66.24</v>
-      </c>
-      <c r="K7" s="5" t="n">
+      <c r="J7" s="5">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="K7" s="5">
         <v>4</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -672,42 +932,42 @@
       <c r="O7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>15.7</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>6.96</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>11.33</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="5">
         <v>83.83</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>7.33</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>52.89</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>6</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -722,42 +982,42 @@
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>37.32</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>27.82</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>32.47</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="5">
         <v>63.22</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>7.13</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>83.94</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="5">
         <v>9</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -772,42 +1032,42 @@
       <c r="O9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>31.96</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>21.85</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="5">
         <v>26.71</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="5">
         <v>90</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>192</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>79.18</v>
-      </c>
-      <c r="K10" s="5" t="n">
+      <c r="J10" s="5">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="K10" s="5">
         <v>2</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -822,42 +1082,42 @@
       <c r="O10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>30.05</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>17.04</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="5">
         <v>23.55</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="5">
         <v>91</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5">
         <v>23.5</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>73.56</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="5">
         <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -872,42 +1132,42 @@
       <c r="O11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>2.5</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>25.96</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>10.57</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>18.27</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="5">
         <v>92</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>0.7</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>64.57</v>
-      </c>
-      <c r="K12" s="5" t="n">
+      <c r="J12" s="5">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="K12" s="5">
         <v>6</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -922,42 +1182,42 @@
       <c r="O12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="P12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="5">
         <v>33</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="5">
         <v>30.05</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="5">
         <v>17.04</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="5">
         <v>23.55</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="5">
         <v>91</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="5">
         <v>23.5</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="5">
         <v>73.56</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="5">
         <v>2</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -966,294 +1226,283 @@
       <c r="M13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="5">
         <v>33</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="5">
         <v>31.55</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="5">
         <v>16.22</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="5">
         <v>23.88</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="5">
         <v>70</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="5">
         <v>52.4</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>72.15</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J14" s="5">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="K14" s="5">
         <v>1</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="5">
         <v>34</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="5">
         <v>6</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="5">
         <v>21.8</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G15" s="5">
         <v>15.38</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="5">
         <v>88</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="5">
         <v>81.8</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="5">
         <v>59.57</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="5">
         <v>4</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="P15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="5">
         <v>34</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="5">
         <v>31.96</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="5">
         <v>21.85</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="5">
         <v>26.91</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="5">
         <v>90</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="5">
         <v>192</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>79.18</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="J16" s="5">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="5">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="5">
         <v>34.26</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="5">
         <v>23.38</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="5">
         <v>28.82</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="5">
         <v>83</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="5">
         <v>250</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="5">
         <v>81.42</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="5">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="5">
         <v>35.5</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="5">
         <v>20.2</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="5">
         <v>27.8</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="5">
         <v>50.9</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="5">
         <v>6.4</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="5">
         <v>75.3</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TDataEx.xlsx
+++ b/TDataEx.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\GithubDesktop\CP302\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D93B02A-FD8F-4D41-A911-0ADA66087D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5662B-5FB5-4B58-AEC5-A148E706F97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>S.No.</t>
   </si>
@@ -578,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>31.55</v>
@@ -1268,22 +1268,22 @@
         <v>72.150000000000006</v>
       </c>
       <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P14" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1291,34 +1291,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5">
-        <v>21.8</v>
+        <v>31.55</v>
       </c>
       <c r="F15" s="5">
-        <v>8.9600000000000009</v>
+        <v>16.22</v>
       </c>
       <c r="G15" s="5">
-        <v>15.38</v>
+        <v>23.88</v>
       </c>
       <c r="H15" s="5">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I15" s="5">
-        <v>81.8</v>
+        <v>52.4</v>
       </c>
       <c r="J15" s="5">
-        <v>59.57</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="K15" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>39</v>
@@ -1327,13 +1327,13 @@
         <v>35</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P15" s="5">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1341,34 +1341,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5">
         <v>34</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5">
-        <v>31.96</v>
+        <v>21.8</v>
       </c>
       <c r="F16" s="5">
-        <v>21.85</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G16" s="5">
-        <v>26.91</v>
+        <v>15.38</v>
       </c>
       <c r="H16" s="5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="5">
-        <v>192</v>
+        <v>81.8</v>
       </c>
       <c r="J16" s="5">
-        <v>79.180000000000007</v>
+        <v>59.57</v>
       </c>
       <c r="K16" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>39</v>
@@ -1377,13 +1377,13 @@
         <v>35</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P16" s="5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1391,34 +1391,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="5">
-        <v>34.26</v>
+        <v>31.96</v>
       </c>
       <c r="F17" s="5">
-        <v>23.38</v>
+        <v>21.85</v>
       </c>
       <c r="G17" s="5">
-        <v>28.82</v>
+        <v>26.91</v>
       </c>
       <c r="H17" s="5">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I17" s="5">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="J17" s="5">
-        <v>81.42</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="K17" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>39</v>
@@ -1427,13 +1427,13 @@
         <v>35</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P17" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1441,55 +1441,100 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
       </c>
       <c r="E18" s="5">
-        <v>35.5</v>
+        <v>34.26</v>
       </c>
       <c r="F18" s="5">
-        <v>20.2</v>
+        <v>23.38</v>
       </c>
       <c r="G18" s="5">
-        <v>27.8</v>
+        <v>28.82</v>
       </c>
       <c r="H18" s="5">
-        <v>50.9</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5">
-        <v>6.4</v>
+        <v>250</v>
       </c>
       <c r="J18" s="5">
-        <v>75.3</v>
+        <v>81.42</v>
       </c>
       <c r="K18" s="5">
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>27.8</v>
+      </c>
+      <c r="H19" s="5">
+        <v>50.9</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>75.3</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="O19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
